--- a/calculos con graficas de gas.xlsx
+++ b/calculos con graficas de gas.xlsx
@@ -14,8 +14,10 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>C02 gas natural</t>
   </si>
@@ -55,6 +57,66 @@
   </si>
   <si>
     <t>N2 BIOGASES</t>
+  </si>
+  <si>
+    <t>5 L</t>
+  </si>
+  <si>
+    <t>Gasolina90%,  gas(GNV) 10%</t>
+  </si>
+  <si>
+    <t>4 L</t>
+  </si>
+  <si>
+    <t>Gasolina 70%, gas (GNV) 30%</t>
+  </si>
+  <si>
+    <t>3 L</t>
+  </si>
+  <si>
+    <t>Gasolina 50%, gas (GNV) 50%</t>
+  </si>
+  <si>
+    <t>2.5 L</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>Gasolina 90%,  GNV 10%</t>
+  </si>
+  <si>
+    <t>gasolina</t>
+  </si>
+  <si>
+    <t>PPM</t>
+  </si>
+  <si>
+    <t>gas 70-30</t>
+  </si>
+  <si>
+    <t>gas 50-50</t>
+  </si>
+  <si>
+    <t>1000 rpm</t>
+  </si>
+  <si>
+    <t>1500 rpm</t>
+  </si>
+  <si>
+    <t>2000  rpm</t>
+  </si>
+  <si>
+    <t>2500  rpm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2000 rpm</t>
+  </si>
+  <si>
+    <t>2500 rpm</t>
   </si>
 </sst>
 </file>
@@ -97,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -135,11 +197,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -147,6 +261,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,6 +1081,2020 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="722724687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4014289880431617E-2"/>
+          <c:y val="0.1352777777777778"/>
+          <c:w val="0.84348571011956841"/>
+          <c:h val="0.66998656417947755"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C02 gas natural</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40C3-48F6-9E29-AC5CB36E00FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="346343375"/>
+        <c:axId val="346337135"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="346343375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346337135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="346337135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Litros</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346343375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Minutos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> que dura encendido el Motor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C02 gas natural</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2015-4400-B7F7-9E37EA268DF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="402900159"/>
+        <c:axId val="402899327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="402900159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402899327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="402899327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Minutos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402900159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Emisiones</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> de CO</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Hoja1!$E$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Hoja1!$D$97:$D$100</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500 rpm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500 rpm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Hoja1!$E$97:$E$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-BEDF-4D5E-B36B-84B94A1FDF15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Hoja1!$F$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gas 70-30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Hoja1!$D$97:$D$100</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500 rpm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500 rpm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Hoja1!$F$97:$F$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-BEDF-4D5E-B36B-84B94A1FDF15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Hoja1!$G$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gas 50-50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Hoja1!$D$97:$D$100</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500 rpm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500 rpm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Hoja1!$G$97:$G$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-BEDF-4D5E-B36B-84B94A1FDF15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Hoja1!$E$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Hoja1!$D$103:$D$106</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500 rpm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500 rpm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Hoja1!$E$103:$E$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BEDF-4D5E-B36B-84B94A1FDF15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Hoja1!$F$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gas 70-30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Hoja1!$D$103:$D$106</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500 rpm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500 rpm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Hoja1!$F$103:$F$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BEDF-4D5E-B36B-84B94A1FDF15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Hoja1!$G$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gas 50-50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Hoja1!$D$103:$D$106</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500 rpm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500 rpm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Hoja1!$G$103:$G$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-BEDF-4D5E-B36B-84B94A1FDF15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="238728943"/>
+        <c:axId val="238730191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="238728943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="238730191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="238730191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="238728943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Emisiones</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> de CO</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Hoja1!$E$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Hoja1!$D$103:$D$106</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500 rpm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500 rpm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Hoja1!$E$103:$E$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB32-4860-B4BD-D5B90397CE6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Hoja1!$F$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gas 70-30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Hoja1!$D$103:$D$106</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500 rpm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500 rpm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Hoja1!$F$103:$F$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB32-4860-B4BD-D5B90397CE6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Hoja1!$G$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gas 50-50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Hoja1!$D$103:$D$106</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500 rpm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000 rpm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500 rpm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Hoja1!$G$103:$G$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB32-4860-B4BD-D5B90397CE6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="238728943"/>
+        <c:axId val="238730191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="238728943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="238730191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="238730191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="238728943"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4496,6 +6636,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5787,6 +8047,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -10126,7 +13895,279 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Gráfico 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Gráfico 16"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="96">
+          <cell r="E96" t="str">
+            <v>gasolina</v>
+          </cell>
+          <cell r="F96" t="str">
+            <v>gas 70-30</v>
+          </cell>
+          <cell r="G96" t="str">
+            <v>gas 50-50</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="D97" t="str">
+            <v>1000 rpm</v>
+          </cell>
+          <cell r="E97">
+            <v>4.3</v>
+          </cell>
+          <cell r="F97">
+            <v>2.4</v>
+          </cell>
+          <cell r="G97">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="D98" t="str">
+            <v>1500 rpm</v>
+          </cell>
+          <cell r="E98">
+            <v>2.5</v>
+          </cell>
+          <cell r="F98">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="G98">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="D99" t="str">
+            <v>2000 rpm</v>
+          </cell>
+          <cell r="E99">
+            <v>3.5</v>
+          </cell>
+          <cell r="F99">
+            <v>1.8</v>
+          </cell>
+          <cell r="G99">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="D100" t="str">
+            <v>2500 rpm</v>
+          </cell>
+          <cell r="E100">
+            <v>4.5</v>
+          </cell>
+          <cell r="F100">
+            <v>2.8</v>
+          </cell>
+          <cell r="G100">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="E102" t="str">
+            <v>gasolina</v>
+          </cell>
+          <cell r="F102" t="str">
+            <v>gas 70-30</v>
+          </cell>
+          <cell r="G102" t="str">
+            <v>gas 50-50</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="D103" t="str">
+            <v>1000 rpm</v>
+          </cell>
+          <cell r="E103">
+            <v>4.3</v>
+          </cell>
+          <cell r="F103">
+            <v>2.4</v>
+          </cell>
+          <cell r="G103">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="D104" t="str">
+            <v>1500 rpm</v>
+          </cell>
+          <cell r="E104">
+            <v>2.5</v>
+          </cell>
+          <cell r="F104">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="G104">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="D105" t="str">
+            <v>2000 rpm</v>
+          </cell>
+          <cell r="E105">
+            <v>3.5</v>
+          </cell>
+          <cell r="F105">
+            <v>1.8</v>
+          </cell>
+          <cell r="G105">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="D106" t="str">
+            <v>2500 rpm</v>
+          </cell>
+          <cell r="E106">
+            <v>4.5</v>
+          </cell>
+          <cell r="F106">
+            <v>2.8</v>
+          </cell>
+          <cell r="G106">
+            <v>5</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10392,10 +14433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C74"/>
+  <dimension ref="B1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:G21"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="O138" sqref="O138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10856,6 +14897,392 @@
       </c>
     </row>
     <row r="74" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="4"/>
+      <c r="C80" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="4"/>
+      <c r="C94" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B113" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B115" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G115" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B121" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B122" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="2">
+        <v>3</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B124" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" s="2">
+        <v>6</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G124" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B127" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B128" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D128" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E128" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D129" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E129" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B130" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D130" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="E130" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D131" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="E131" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B133" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B134" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D134" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E134" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B135" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D135" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E135" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B136" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="E136" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B137" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C137" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D137" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="E137" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
